--- a/exp data/EIS mpt files/basu single/Excel_Fitting_EIS_1_2_3step.xlsx
+++ b/exp data/EIS mpt files/basu single/Excel_Fitting_EIS_1_2_3step.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github.com\yugal0\fitting-experimental\exp data\EIS mpt files\basu single\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49F602-CCE6-47D4-A00D-8C5A039F8316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213C80A6-D724-4094-AC70-85EAD3C0A207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285" activeTab="3" xr2:uid="{6A581594-5CD7-44DC-B020-6FA0BFB8B920}"/>
   </bookViews>
@@ -2267,7 +2267,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2318,7 +2317,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6122,15 +6121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>661078</xdr:colOff>
+      <xdr:colOff>661076</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19057</xdr:rowOff>
+      <xdr:rowOff>19054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504233</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142883</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6164,12 +6163,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.16727</cdr:x>
-      <cdr:y>0.09004</cdr:y>
+      <cdr:x>0.11291</cdr:x>
+      <cdr:y>0.15362</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.22064</cdr:x>
-      <cdr:y>0.91233</cdr:y>
+      <cdr:x>0.16628</cdr:x>
+      <cdr:y>0.97591</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6184,8 +6183,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="734206" y="302734"/>
-          <a:ext cx="234265" cy="2764824"/>
+          <a:off x="805018" y="872973"/>
+          <a:ext cx="380513" cy="4672913"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -6209,12 +6208,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.13954</cdr:x>
-      <cdr:y>0.88074</cdr:y>
+      <cdr:x>0.08334</cdr:x>
+      <cdr:y>0.91542</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.39828</cdr:x>
-      <cdr:y>0.88074</cdr:y>
+      <cdr:x>0.12748</cdr:x>
+      <cdr:y>0.91542</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -6229,8 +6228,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="612084" y="2961347"/>
-          <a:ext cx="1134984" cy="0"/>
+          <a:off x="594173" y="5202143"/>
+          <a:ext cx="314733" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -8668,8 +8667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86443BA0-76A5-477F-BC27-DB752121E9E1}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9605,7 +9604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF010B80-5EB6-444D-8236-AA260CF46415}">
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C61"/>
     </sheetView>
   </sheetViews>
